--- a/2/3/Base 2018 = 100, variación mensual 2018 a 2021 - Mensual.xlsx
+++ b/2/3/Base 2018 = 100, variación mensual 2018 a 2021 - Mensual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
   <si>
     <t>Serie</t>
   </si>
@@ -155,6 +155,9 @@
   </si>
   <si>
     <t>01-06-2021</t>
+  </si>
+  <si>
+    <t>01-07-2021</t>
   </si>
 </sst>
 </file>
@@ -512,7 +515,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F42"/>
+  <dimension ref="A1:F43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1358,6 +1361,26 @@
         <v>-1.1</v>
       </c>
     </row>
+    <row r="43" spans="1:6">
+      <c r="A43" t="s">
+        <v>47</v>
+      </c>
+      <c r="B43">
+        <v>0.8</v>
+      </c>
+      <c r="C43">
+        <v>0.6</v>
+      </c>
+      <c r="D43">
+        <v>1.2</v>
+      </c>
+      <c r="E43">
+        <v>0.4</v>
+      </c>
+      <c r="F43">
+        <v>-0.5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/2/3/Base 2018 = 100, variación mensual 2018 a 2021 - Mensual.xlsx
+++ b/2/3/Base 2018 = 100, variación mensual 2018 a 2021 - Mensual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
   <si>
     <t>Serie</t>
   </si>
@@ -158,6 +158,9 @@
   </si>
   <si>
     <t>01-07-2021</t>
+  </si>
+  <si>
+    <t>01-08-2021</t>
   </si>
 </sst>
 </file>
@@ -515,7 +518,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F43"/>
+  <dimension ref="A1:F44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1381,6 +1384,26 @@
         <v>-0.5</v>
       </c>
     </row>
+    <row r="44" spans="1:6">
+      <c r="A44" t="s">
+        <v>48</v>
+      </c>
+      <c r="B44">
+        <v>0.4</v>
+      </c>
+      <c r="C44">
+        <v>0.4</v>
+      </c>
+      <c r="D44">
+        <v>0.2</v>
+      </c>
+      <c r="E44">
+        <v>0.5</v>
+      </c>
+      <c r="F44">
+        <v>-0.2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/2/3/Base 2018 = 100, variación mensual 2018 a 2021 - Mensual.xlsx
+++ b/2/3/Base 2018 = 100, variación mensual 2018 a 2021 - Mensual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
   <si>
     <t>Serie</t>
   </si>
@@ -161,6 +161,9 @@
   </si>
   <si>
     <t>01-08-2021</t>
+  </si>
+  <si>
+    <t>01-09-2021</t>
   </si>
 </sst>
 </file>
@@ -518,7 +521,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F44"/>
+  <dimension ref="A1:F45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1404,6 +1407,26 @@
         <v>-0.2</v>
       </c>
     </row>
+    <row r="45" spans="1:6">
+      <c r="A45" t="s">
+        <v>49</v>
+      </c>
+      <c r="B45">
+        <v>1.2</v>
+      </c>
+      <c r="C45">
+        <v>0.9</v>
+      </c>
+      <c r="D45">
+        <v>1.5</v>
+      </c>
+      <c r="E45">
+        <v>0.8</v>
+      </c>
+      <c r="F45">
+        <v>3.9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/2/3/Base 2018 = 100, variación mensual 2018 a 2021 - Mensual.xlsx
+++ b/2/3/Base 2018 = 100, variación mensual 2018 a 2021 - Mensual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
   <si>
     <t>Serie</t>
   </si>
@@ -164,6 +164,9 @@
   </si>
   <si>
     <t>01-09-2021</t>
+  </si>
+  <si>
+    <t>01-10-2021</t>
   </si>
 </sst>
 </file>
@@ -521,7 +524,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F45"/>
+  <dimension ref="A1:F46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1427,6 +1430,26 @@
         <v>3.9</v>
       </c>
     </row>
+    <row r="46" spans="1:6">
+      <c r="A46" t="s">
+        <v>50</v>
+      </c>
+      <c r="B46">
+        <v>1.3</v>
+      </c>
+      <c r="C46">
+        <v>1.4</v>
+      </c>
+      <c r="D46">
+        <v>1.3</v>
+      </c>
+      <c r="E46">
+        <v>1.4</v>
+      </c>
+      <c r="F46">
+        <v>1.2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
